--- a/pheno_data/Roza2019_pedegree_Yu.xlsx
+++ b/pheno_data/Roza2019_pedegree_Yu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarmedina/Documents/git/Roza_2019/pheno_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784B14D-D6B6-0B43-AF9A-312EC38B7DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6624DF25-555C-7142-B4D8-5110BB75B023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27560" windowHeight="17500" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="27560" windowHeight="17500" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'BC1'!$A$1:$D$692</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11">'BC4'!$Q$1:$Q$437</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'BC4'!$A$1:$S$437</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10551" uniqueCount="2379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10556" uniqueCount="2384">
   <si>
     <t>It is the drought resistant parent population. These are the same genotypes as the cuttings sent to us from WA and UT.</t>
   </si>
@@ -7188,6 +7188,21 @@
   </si>
   <si>
     <t>1613-4x1622-4J</t>
+  </si>
+  <si>
+    <t>It is the F1 population. Plants labeled A-F were collected from the 1613 parent.</t>
+  </si>
+  <si>
+    <t>Plants labeled G-L were from the 1608 parent.</t>
+  </si>
+  <si>
+    <t>1608-5</t>
+  </si>
+  <si>
+    <t>24 missing and 27 missing</t>
+  </si>
+  <si>
+    <t>1613-8x1622-8K</t>
   </si>
 </sst>
 </file>
@@ -7242,7 +7257,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7273,6 +7288,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -7301,7 +7328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7381,6 +7408,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7468,9 +7501,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7508,7 +7541,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7614,7 +7647,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7756,7 +7789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7766,8 +7799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="136" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7817,7 +7850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ489"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22028,10 +22063,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ441"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -42605,8 +42640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S437"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T122" sqref="T122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -47803,10 +47838,10 @@
         <v>1</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>742</v>
+        <v>981</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>1652</v>
+        <v>145</v>
       </c>
       <c r="M84" s="13" t="s">
         <v>1574</v>
@@ -47819,7 +47854,7 @@
       </c>
       <c r="P84" s="13" t="str">
         <f>M84&amp;"_"&amp;L84</f>
-        <v>1613-2_1613-2D</v>
+        <v>1613-2_1622-2D</v>
       </c>
       <c r="Q84" s="13" t="str">
         <f>M84</f>
@@ -47827,7 +47862,7 @@
       </c>
       <c r="R84" s="13" t="str">
         <f>L84</f>
-        <v>1613-2D</v>
+        <v>1622-2D</v>
       </c>
       <c r="S84" s="13">
         <v>2</v>
@@ -48987,7 +49022,7 @@
         <v>1695</v>
       </c>
       <c r="M103" t="s">
-        <v>1696</v>
+        <v>121</v>
       </c>
       <c r="N103" t="s">
         <v>1697</v>
@@ -48997,7 +49032,7 @@
       </c>
       <c r="P103" t="str">
         <f t="shared" si="9"/>
-        <v>1613-5_16225A</v>
+        <v>1613-5_1622-5A</v>
       </c>
       <c r="Q103" t="str">
         <f t="shared" si="10"/>
@@ -49005,7 +49040,7 @@
       </c>
       <c r="R103" t="str">
         <f t="shared" si="11"/>
-        <v>16225A</v>
+        <v>1622-5A</v>
       </c>
       <c r="S103">
         <v>5</v>
@@ -50159,13 +50194,13 @@
         <v>2</v>
       </c>
       <c r="K122" t="s">
-        <v>1031</v>
+        <v>2383</v>
       </c>
       <c r="L122" t="s">
         <v>1735</v>
       </c>
       <c r="M122" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="N122" t="s">
         <v>1738</v>
@@ -50175,7 +50210,7 @@
       </c>
       <c r="P122" t="str">
         <f t="shared" si="9"/>
-        <v>1613-8_1622-8</v>
+        <v>1613-8_1622-8K</v>
       </c>
       <c r="Q122" t="str">
         <f t="shared" si="10"/>
@@ -50183,7 +50218,7 @@
       </c>
       <c r="R122" t="str">
         <f t="shared" si="11"/>
-        <v>1622-8</v>
+        <v>1622-8K</v>
       </c>
       <c r="S122">
         <v>8</v>
@@ -52453,10 +52488,10 @@
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>759</v>
+        <v>978</v>
       </c>
       <c r="L159" t="s">
-        <v>1815</v>
+        <v>304</v>
       </c>
       <c r="M159" t="s">
         <v>1541</v>
@@ -52469,7 +52504,7 @@
       </c>
       <c r="P159" t="str">
         <f t="shared" si="15"/>
-        <v>1613-17_1622-171</v>
+        <v>1613-17_1622-17I</v>
       </c>
       <c r="Q159" t="str">
         <f t="shared" si="16"/>
@@ -52477,7 +52512,7 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" si="17"/>
-        <v>1622-171</v>
+        <v>1622-17I</v>
       </c>
       <c r="S159">
         <v>17</v>
@@ -57118,8 +57153,8 @@
         <v>729</v>
       </c>
       <c r="P234" t="str">
-        <f>L234&amp;"_"&amp;M234</f>
-        <v>1622-4J_1613-4</v>
+        <f>M234&amp;"_"&amp;L234</f>
+        <v>1613-4_1622-4J</v>
       </c>
       <c r="Q234" t="str">
         <f t="shared" si="22"/>
@@ -69720,7 +69755,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O437" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:S437" xr:uid="{00000000-0001-0000-0B00-000000000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -69735,7 +69770,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C1" sqref="C1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -70274,7 +70309,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F38" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -70634,8 +70669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -72018,9 +72053,13 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>1695</v>
+      </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>2381</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -72072,386 +72111,392 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
+      <c r="A37" s="33">
         <v>4</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="33">
         <v>2</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="33">
         <v>0</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="33">
         <v>2</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="33">
         <v>0</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="33">
         <v>4</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="33">
         <v>0</v>
       </c>
-      <c r="H37" s="6">
-        <v>1</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="H37" s="33">
+        <v>1</v>
+      </c>
+      <c r="I37" s="33">
         <v>0</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="33" t="s">
         <v>83</v>
       </c>
+      <c r="K37" s="29" t="s">
+        <v>2379</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
+      <c r="A38" s="33">
         <v>2</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="33">
         <v>4</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="33">
         <v>4</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="33">
         <v>4</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="33">
         <v>0</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="33">
         <v>2</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="33">
         <v>0</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="33">
         <v>2</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="33">
         <v>4</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
+      <c r="A39" s="33">
         <v>3</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="33">
         <v>3</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="33">
         <v>0</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="33">
         <v>0</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="33">
         <v>0</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="33">
         <v>2</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="33">
         <v>0</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="33">
         <v>0</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="33">
         <v>2</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="33" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
+      <c r="A40" s="33">
         <v>2</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="33">
         <v>4</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="33">
         <v>4</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="33">
         <v>4</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="33">
         <v>0</v>
       </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="F40" s="33">
+        <v>1</v>
+      </c>
+      <c r="G40" s="33">
         <v>4</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="33">
         <v>0</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="33">
         <v>3</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
+      <c r="A41" s="33">
         <v>3</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="33">
         <v>4</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="33">
         <v>0</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="33">
         <v>2</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="33">
         <v>0</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="33">
         <v>0</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="33">
         <v>3</v>
       </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="H41" s="33">
+        <v>1</v>
+      </c>
+      <c r="I41" s="33">
         <v>3</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="33" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" s="6">
-        <v>1</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="A42" s="33">
+        <v>1</v>
+      </c>
+      <c r="B42" s="33">
         <v>3</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="33">
         <v>2</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="33">
         <v>2</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="33">
         <v>0</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="33">
         <v>3</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="33">
         <v>3</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="33">
         <v>4</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="33">
         <v>2</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
+      <c r="A43" s="32">
         <v>2</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="32">
         <v>3</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="32">
         <v>4</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="32">
         <v>2</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="32">
         <v>0</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="32">
         <v>2</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="32">
         <v>4</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="32">
         <v>4</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="32">
         <v>3</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="32" t="s">
         <v>89</v>
       </c>
+      <c r="K43" t="s">
+        <v>2380</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" s="6">
+      <c r="A44" s="32">
         <v>3</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="32">
         <v>3</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="32">
         <v>3</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="32">
         <v>2</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="32">
         <v>2</v>
       </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="F44" s="32">
+        <v>1</v>
+      </c>
+      <c r="G44" s="32">
         <v>3</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="32">
         <v>2</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="32">
         <v>6</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A45" s="6">
-        <v>1</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="A45" s="32">
+        <v>1</v>
+      </c>
+      <c r="B45" s="32">
         <v>4</v>
       </c>
-      <c r="C45" s="6">
-        <v>1</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="C45" s="32">
+        <v>1</v>
+      </c>
+      <c r="D45" s="32">
         <v>0</v>
       </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="E45" s="32">
+        <v>1</v>
+      </c>
+      <c r="F45" s="32">
         <v>3</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="32">
         <v>2</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="32">
         <v>3</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="32">
         <v>4</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" s="6">
+      <c r="A46" s="32">
         <v>3</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="32">
         <v>4</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="32">
         <v>2</v>
       </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="D46" s="32">
+        <v>1</v>
+      </c>
+      <c r="E46" s="32">
         <v>2</v>
       </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="F46" s="32">
+        <v>1</v>
+      </c>
+      <c r="G46" s="32">
         <v>2</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="32">
         <v>4</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="32">
         <v>3</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="32" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="6">
+      <c r="A47" s="32">
         <v>3</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="32">
         <v>2</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="32">
         <v>2</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="32">
         <v>0</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="32">
         <v>0</v>
       </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1</v>
-      </c>
-      <c r="H47" s="6">
+      <c r="F47" s="32">
+        <v>1</v>
+      </c>
+      <c r="G47" s="32">
+        <v>1</v>
+      </c>
+      <c r="H47" s="32">
         <v>3</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="32">
         <v>4</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="32" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A48" s="6">
+      <c r="A48" s="32">
         <v>3</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="32">
         <v>3</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="32">
         <v>3</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="32">
         <v>4</v>
       </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6">
+      <c r="E48" s="32">
+        <v>1</v>
+      </c>
+      <c r="F48" s="32">
+        <v>1</v>
+      </c>
+      <c r="G48" s="32">
         <v>3</v>
       </c>
-      <c r="H48" s="6">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6">
+      <c r="H48" s="32">
+        <v>1</v>
+      </c>
+      <c r="I48" s="32">
         <v>4</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="32" t="s">
         <v>94</v>
       </c>
     </row>
@@ -73606,15 +73651,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H28"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -73628,7 +73673,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -73660,499 +73705,526 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="str">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="str">
         <f t="shared" ref="A3:I14" si="0">CONCATENATE(A$2,$J3)</f>
         <v>1622-1A</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-2A</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-3A</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-4A</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-5A</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-6A</v>
       </c>
-      <c r="G3" s="6" t="str">
+      <c r="G3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-7A</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-8A</v>
       </c>
-      <c r="I3" s="6" t="str">
+      <c r="I3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-9A</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="str">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-1B</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-2B</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-3B</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-4B</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="E4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-5B</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-6B</v>
       </c>
-      <c r="G4" s="6" t="str">
+      <c r="G4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-7B</v>
       </c>
-      <c r="H4" s="6" t="str">
+      <c r="H4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-8B</v>
       </c>
-      <c r="I4" s="6" t="str">
+      <c r="I4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-9B</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-1C</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-2C</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-3C</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-4C</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-5C</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-6C</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-7C</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-8C</v>
       </c>
-      <c r="I5" s="6" t="str">
+      <c r="I5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-9C</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="str">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-1D</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-2D</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-3D</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-4D</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-5D</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-6D</v>
       </c>
-      <c r="G6" s="6" t="str">
+      <c r="G6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-7D</v>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="H6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-8D</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-9D</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="str">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-1E</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-2E</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-3E</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-4E</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-5E</v>
       </c>
-      <c r="F7" s="6" t="str">
+      <c r="F7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-6E</v>
       </c>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-7E</v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-8E</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-9E</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="str">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-1F</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-2F</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-3F</v>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-4F</v>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-5F</v>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-6F</v>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-7F</v>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-8F</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>1622-9F</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="33" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="str">
+      <c r="M8">
+        <v>436</v>
+      </c>
+      <c r="N8">
+        <f>M8*0.2</f>
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-1G</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-2G</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-3G</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-4G</v>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-5G</v>
       </c>
-      <c r="F9" s="6" t="str">
+      <c r="F9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-6G</v>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-7G</v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-8G</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-9G</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="str">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-1H</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-2H</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-3H</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-4H</v>
       </c>
-      <c r="E10" s="6" t="str">
+      <c r="E10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-5H</v>
       </c>
-      <c r="F10" s="6" t="str">
+      <c r="F10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-6H</v>
       </c>
-      <c r="G10" s="6" t="str">
+      <c r="G10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-7H</v>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="H10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-8H</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-9H</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="str">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-1I</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-2I</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-3I</v>
       </c>
-      <c r="D11" s="6" t="str">
+      <c r="D11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-4I</v>
       </c>
-      <c r="E11" s="6" t="str">
+      <c r="E11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-5I</v>
       </c>
-      <c r="F11" s="6" t="str">
+      <c r="F11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-6I</v>
       </c>
-      <c r="G11" s="6" t="str">
+      <c r="G11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-7I</v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="H11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-8I</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-9I</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="str">
+      <c r="N11">
+        <v>85</v>
+      </c>
+      <c r="O11">
+        <v>18</v>
+      </c>
+      <c r="P11">
+        <f>O11*N11</f>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-1J</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-2J</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-3J</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-4J</v>
       </c>
-      <c r="E12" s="6" t="str">
+      <c r="E12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-5J</v>
       </c>
-      <c r="F12" s="6" t="str">
+      <c r="F12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-6J</v>
       </c>
-      <c r="G12" s="6" t="str">
+      <c r="G12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-7J</v>
       </c>
-      <c r="H12" s="6" t="str">
+      <c r="H12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-8J</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-9J</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="str">
+      <c r="N12">
+        <v>85</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <f>O12*N12</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-1K</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-2K</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-3K</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-4K</v>
       </c>
-      <c r="E13" s="6" t="str">
+      <c r="E13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-5K</v>
       </c>
-      <c r="F13" s="6" t="str">
+      <c r="F13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-6K</v>
       </c>
-      <c r="G13" s="6" t="str">
+      <c r="G13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-7K</v>
       </c>
-      <c r="H13" s="6" t="str">
+      <c r="H13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-8K</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-9K</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="str">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-1L</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-2L</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-3L</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-4L</v>
       </c>
-      <c r="E14" s="6" t="str">
+      <c r="E14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-5L</v>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="F14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-6L</v>
       </c>
-      <c r="G14" s="6" t="str">
+      <c r="G14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-7L</v>
       </c>
-      <c r="H14" s="6" t="str">
+      <c r="H14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-8L</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>1622-9L</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -74164,7 +74236,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>95</v>
       </c>
@@ -74196,7 +74268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="str">
         <f t="shared" ref="A17:I28" si="1">CONCATENATE(A$16,$J17)</f>
         <v>1622-10A</v>
@@ -74237,7 +74309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10B</v>
@@ -74278,7 +74350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10C</v>
@@ -74319,8 +74391,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="str">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1622-10D</v>
       </c>
@@ -74360,7 +74432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10E</v>
@@ -74401,7 +74473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10F</v>
@@ -74442,7 +74514,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10G</v>
@@ -74483,7 +74555,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10H</v>
@@ -74524,7 +74596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10I</v>
@@ -74565,7 +74637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10J</v>
@@ -74606,7 +74678,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10K</v>
@@ -74647,7 +74719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>1622-10L</v>
@@ -74688,7 +74760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -74700,7 +74772,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>104</v>
       </c>
@@ -74731,8 +74803,11 @@
       <c r="J30" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L30" s="4" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="str">
         <f t="shared" ref="A31:I42" si="2">CONCATENATE(A$30,$J31)</f>
         <v>1622-19A</v>
@@ -74773,7 +74848,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>1622-19B</v>
@@ -81816,8 +81891,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H692"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D715" sqref="D715"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -83012,7 +83087,7 @@
       </c>
       <c r="G79" s="22"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
         <v>869</v>
       </c>
@@ -83432,7 +83507,7 @@
       </c>
       <c r="G107" s="22"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
         <v>921</v>
       </c>
@@ -84687,7 +84762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6" t="s">
         <v>1031</v>
       </c>
@@ -91649,7 +91724,7 @@
   <autoFilter ref="A1:D692" xr:uid="{00000000-0001-0000-0800-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="64A"/>
+        <filter val="28A"/>
       </filters>
     </filterColumn>
   </autoFilter>
